--- a/instructs.xlsx
+++ b/instructs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p00688\Documents\PsychoPy\IAT 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267C74F8-10B1-46DD-8600-A049A2ED7BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68341D8F-D62B-4763-8793-F2143AA3BF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4790" yWindow="14290" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>instruct_text</t>
   </si>
   <si>
     <t>pageNum</t>
+  </si>
+  <si>
+    <t>Le test a pour objectif de mesurer les associations entre des catégories de concepts, c'est-à-dire de mesurer si l'on a tendance à implicitement associer deux concepts l'un avec l'autre ou non. 
+Vous obtiendrez un score qui va concrètement mesurer votre degré de stéréotype concernant le genre dans les sciences.
+Appuyez sur la barre espace pour passer à l'étape suivante.</t>
+  </si>
+  <si>
+    <t>Des mots vous seront présentés un par un au centre de l’écran. Vous devrez les classer aussi vite que possible sans faire d’erreurs dans la catégorie située en haut à gauche et à droite de l’écran.
+Les touches "E" et "I" seront associées à une ou deux catégories et vous permettront de répondre.
+Appuyez sur la barre espace pour passer à l'étape suivante.</t>
   </si>
   <si>
     <t>Chaque mot a une classification correcte. En cas d'erreur, vous devez appuyer sur la touche correcte pour continuer.
@@ -38,20 +48,14 @@
 Appuyez sur la barre espace pour passer à l'étape suivante.</t>
   </si>
   <si>
-    <t>Des mots vous seront présentés un par un au centre de l’écran. 
-Vous devrez les classer aussi vite que possible sans faire d’erreurs dans la ou les catégories situées en haut à gauche et à droite de l’écran.
-Les touches "E" et "I" seront associées à une catégorie et vous permettront de répondre.
-Appuyez sur la barre espace pour passer à l'étape suivante.</t>
-  </si>
-  <si>
-    <t>Le test a pour objectif de mesurer les associations entre des catégories de concepts, c'est-à-dire de mesurer si l'on a tendance à implicitement associer deux concepts l'un avec l'autre ou non. 
-Vous obtiendrez un score qui va concrètement mesurer votre degré de stéréotype concernant le genre dans les sciences.
-Appuyez sur la barre espace pour passer à l'étape suivante.</t>
-  </si>
-  <si>
     <t>La partie qui va suivre va vous permettre de vous familiariser avec le test. Aucune donnée n'est utilisée pour calculer votre score dans cette partie de l'expérience.
 Vous allez vous entraîner avec des mots à classer parmi les catégories "gauche" (touche E du clavier) et "droite" (touche I du clavier).
 Appuyez sur la barre espace pour passer à l'étape suivante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet entraînement va aussi vous indiquer si vous répondez trop rapidement ou trop lentement. Cela ne sera pas indiqué lors des "vrais" essais. 
+Il vous faut donc répondre le plus rapidement possible sans vous tromper. 
+Appuyez sur la barre espace pour passer à l'étape suivante. </t>
   </si>
 </sst>
 </file>
@@ -378,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,10 +406,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -418,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -427,6 +431,14 @@
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
